--- a/biology/Zoologie/Herennia/Herennia.xlsx
+++ b/biology/Zoologie/Herennia/Herennia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herennia est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herennia est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 18/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 18/03/2024) :
 Herennia agnarssoni Kuntner, 2005
 Herennia deelemanae Kuntner, 2005
 Herennia etruscilla Kuntner, 2005
@@ -583,9 +599,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1877 dans les Epeiridae. Il est placé dans les Nephilidae par Kuntner en 2006[2], dans les Araneidae par Dimitrov et al. en 2017[3], dans les Nephilidae par Kuntner et al. en 2023[4] puis dans les Araneidae par Hormiga et al. en 2023[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1877 dans les Epeiridae. Il est placé dans les Nephilidae par Kuntner en 2006, dans les Araneidae par Dimitrov et al. en 2017, dans les Nephilidae par Kuntner et al. en 2023 puis dans les Araneidae par Hormiga et al. en 2023.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1877 : « Studi sui Ragni Malesi e Papuani. I. Ragni di Selebes raccolti nel 1874 dal Dott. O. Beccari. » Annali del Museo Civico di Storia Naturale di Genova, vol. 10, p. 341-637  (texte intégral).</t>
         </is>
